--- a/SP_Sklad/TempLate/MatOutByMonth(41).xlsx
+++ b/SP_Sklad/TempLate/MatOutByMonth(41).xlsx
@@ -10,20 +10,20 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="KagentRange">Лист1!$A$9:$R$10</definedName>
+    <definedName name="KagentRange">Лист1!$A$9:$S$10</definedName>
     <definedName name="MatGroup">Лист1!#REF!</definedName>
     <definedName name="MatOutDet">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$6:$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$R$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$S$10</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>sum</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>кг</t>
+  </si>
+  <si>
+    <t>Група контрагентів</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -460,12 +463,33 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -493,26 +517,11 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,7 +891,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:R12"/>
+  <dimension ref="B1:S12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
@@ -895,35 +904,37 @@
     <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
-    <col min="6" max="17" width="9.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="27" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="1" customWidth="1"/>
+    <col min="7" max="18" width="9.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="27" customHeight="1">
-      <c r="B1" s="25" t="e">
+    <row r="1" spans="2:19" ht="27" customHeight="1">
+      <c r="B1" s="32" t="e">
         <f>CONCATENATE("ЗВІТ ПРО ВІДГРУЗКУ ТОВАРІВ ПО КОНТРАГЕНТАХ ЗА "&amp;XLRPARAMS_Year," РІК")</f>
         <v>#NAME?</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
     </row>
-    <row r="2" spans="2:18" ht="7.5" customHeight="1">
+    <row r="2" spans="2:19" ht="7.5" customHeight="1">
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -941,8 +952,9 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="2:18" s="12" customFormat="1" ht="15.75" customHeight="1">
+    <row r="3" spans="2:19" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
@@ -952,10 +964,11 @@
         <v>#NAME?</v>
       </c>
       <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="2:18" s="12" customFormat="1" ht="15.75" customHeight="1">
+    <row r="4" spans="2:19" s="12" customFormat="1" ht="15.75" customHeight="1">
       <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
@@ -964,77 +977,82 @@
         <v>18</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="2:18" ht="5.25" customHeight="1"/>
-    <row r="6" spans="2:18" ht="17.25" customHeight="1">
-      <c r="B6" s="19" t="s">
+    <row r="5" spans="2:19" ht="5.25" customHeight="1"/>
+    <row r="6" spans="2:19" ht="17.25" customHeight="1">
+      <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="26"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="I6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="J6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="K6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="L6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="M6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="N6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="O6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="P6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="Q6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="30" t="s">
+      <c r="R6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="S6" s="35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="21" customHeight="1">
-      <c r="B7" s="20"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="27"/>
+    <row r="7" spans="2:19" ht="21" customHeight="1">
+      <c r="B7" s="25"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="29"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="36"/>
     </row>
-    <row r="8" spans="2:18" ht="21" hidden="1" customHeight="1">
+    <row r="8" spans="2:19" ht="21" hidden="1" customHeight="1">
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -1052,121 +1070,127 @@
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
     </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="21" t="e">
+    <row r="9" spans="2:19">
+      <c r="B9" s="28" t="e">
         <f>KagentRange_Name</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="34" t="e">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="19" t="e">
+        <f>KagentRange_KontragentGroupName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G9" s="21" t="e">
         <f>KagentRange_Amount_1</f>
         <v>#NAME?</v>
       </c>
-      <c r="G9" s="34" t="e">
+      <c r="H9" s="21" t="e">
         <f>KagentRange_Amount_2</f>
         <v>#NAME?</v>
       </c>
-      <c r="H9" s="34" t="e">
+      <c r="I9" s="21" t="e">
         <f>KagentRange_Amount_3</f>
         <v>#NAME?</v>
       </c>
-      <c r="I9" s="34" t="e">
+      <c r="J9" s="21" t="e">
         <f>KagentRange_Amount_4</f>
         <v>#NAME?</v>
       </c>
-      <c r="J9" s="34" t="e">
+      <c r="K9" s="21" t="e">
         <f>KagentRange_Amount_5</f>
         <v>#NAME?</v>
       </c>
-      <c r="K9" s="34" t="e">
+      <c r="L9" s="21" t="e">
         <f>KagentRange_Amount_6</f>
         <v>#NAME?</v>
       </c>
-      <c r="L9" s="34" t="e">
+      <c r="M9" s="21" t="e">
         <f>KagentRange_Amount_7</f>
         <v>#NAME?</v>
       </c>
-      <c r="M9" s="34" t="e">
+      <c r="N9" s="21" t="e">
         <f>KagentRange_Amount_8</f>
         <v>#NAME?</v>
       </c>
-      <c r="N9" s="34" t="e">
+      <c r="O9" s="21" t="e">
         <f>KagentRange_Amount_9</f>
         <v>#NAME?</v>
       </c>
-      <c r="O9" s="34" t="e">
+      <c r="P9" s="21" t="e">
         <f>KagentRange_Amount_10</f>
         <v>#NAME?</v>
       </c>
-      <c r="P9" s="34" t="e">
+      <c r="Q9" s="21" t="e">
         <f>KagentRange_Amount_11</f>
         <v>#NAME?</v>
       </c>
-      <c r="Q9" s="34" t="e">
+      <c r="R9" s="21" t="e">
         <f>KagentRange_Amount_12</f>
         <v>#NAME?</v>
       </c>
-      <c r="R9" s="35" t="e">
+      <c r="S9" s="22" t="e">
         <f>KagentRange_Amount_Total</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="2:19">
+      <c r="B10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="36" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="H10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="I10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="J10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="K10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="K10" s="36" t="s">
+      <c r="L10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L10" s="36" t="s">
+      <c r="M10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="N10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="36" t="s">
+      <c r="O10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="36" t="s">
+      <c r="P10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="P10" s="36" t="s">
+      <c r="Q10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q10" s="36" t="s">
+      <c r="R10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="R10" s="36" t="s">
+      <c r="S10" s="23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:19">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -1178,14 +1202,15 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
-      <c r="R11" s="10"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="10"/>
     </row>
-    <row r="12" spans="2:18" ht="12.75" customHeight="1">
+    <row r="12" spans="2:19" ht="12.75" customHeight="1">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1197,18 +1222,15 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="5"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B9:E9"/>
+  <mergeCells count="18">
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="S6:S7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
@@ -1216,16 +1238,21 @@
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="R6:R7"/>
     <mergeCell ref="B6:E7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B9:E9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="86" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="18" max="8" man="1"/>
+    <brk id="19" max="8" man="1"/>
   </colBreaks>
 </worksheet>
 </file>